--- a/TenderProcessingCode/TenderProcessing/obj/Release/Package/PackageTmp/App_Data/Template.xlsx
+++ b/TenderProcessingCode/TenderProcessing/obj/Release/Package/PackageTmp/App_Data/Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>№ конкурса</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Менеджер</t>
   </si>
   <si>
-    <t>Запрос</t>
-  </si>
-  <si>
     <t>Замена</t>
   </si>
   <si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>Срок поставки *</t>
+  </si>
+  <si>
+    <t>Каталожный №</t>
+  </si>
+  <si>
+    <t>Количество</t>
   </si>
 </sst>
 </file>
@@ -484,90 +487,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
